--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandini\Desktop\git\marsframework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B551F40-82D4-4BA6-8A38-69FD0F5AC1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6774A153-DB2E-4A8B-9361-23471C12383E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2580" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShareSkill" sheetId="1" r:id="rId1"/>
-    <sheet name="Signin" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageListings" sheetId="3" r:id="rId2"/>
+    <sheet name="Signin" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>UserName</t>
   </si>
@@ -107,6 +108,9 @@
   </si>
   <si>
     <t>Logo Designers</t>
+  </si>
+  <si>
+    <t>Logo Designer</t>
   </si>
 </sst>
 </file>
@@ -443,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -586,6 +590,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211BA3A9-2A26-4780-974B-F12F6D85C6B5}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC71C0F0-D2A3-409A-8E66-05605B5DCB3A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
